--- a/biology/Histoire de la zoologie et de la botanique/Carl_Stål/Carl_Stål.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Stål/Carl_Stål.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carl_St%C3%A5l</t>
+          <t>Carl_Stål</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stal redirige ici. Pour l'idéologie politique, voire Stalinisme.
 Carl Stål est un entomologiste suédois, né le 21 mars 1833 au château de Karlberg (Stockholm) et mort le 13 juin 1878 à Trösundavik près de Stockholm.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carl_St%C3%A5l</t>
+          <t>Carl_Stål</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s’inscrit à l’université d'Uppsala en 1853 où il étudie la médecine. Il complète ses études à l’université de Iéna où il obtient son doctorat en 1859. Il devient alors l’assistant de Karl Henrik Boheman (1796-1868) au muséum d’histoire naturelle de Suède. En 1867, il devient conservateur avec le titre de professeur.
-Il voyage en Suède et à travers l’Europe et étudie notamment la collection de Johan Christian Fabricius (1745-1808) à Kiel. Autorité mondiale en matière d’hémiptères[1], il s’intéresse également aux orthoptères, aux coléoptères et aux hyménoptères.
+Il voyage en Suède et à travers l’Europe et étudie notamment la collection de Johan Christian Fabricius (1745-1808) à Kiel. Autorité mondiale en matière d’hémiptères, il s’intéresse également aux orthoptères, aux coléoptères et aux hyménoptères.
 Stål est notamment l’auteur de Hemiptera Africana (1864-1864), Hemiptera Fabriciana (1868-1869), Enumeratio Hemipterorum (de 1870 à 1876), Recensio Orthopterorum (trois volumes, de 1873 à 1876), Observations orthoptérologiques (de 1875 à 1878). Il étudie notamment les insectes rapportés par l’expédition suédoise à bord de l’Eugenie, notamment en Californie. Ses collections sont conservées au Muséum de Stockholm.
 </t>
         </is>
